--- a/doc/alice/20180423后台财务更新.xlsx
+++ b/doc/alice/20180423后台财务更新.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22830" windowHeight="11025" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="11025" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="训练营（按照课时费计算收入）" sheetId="14" r:id="rId8"/>
     <sheet name="训练营（机构版，按照营业额计算收入）" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="297">
   <si>
     <t>收：</t>
   </si>
@@ -1169,18 +1169,16 @@
   <si>
     <t>购买总课量：888</t>
   </si>
+  <si>
+    <t>课时版训练营收入(课时费)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1293,150 +1291,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1461,8 +1315,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,7 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,13 +1343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,194 +1359,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="62">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2357,255 +2031,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2624,22 +2056,586 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2651,110 +2647,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2768,11 +2710,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,100 +2722,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2882,448 +2737,26 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3334,7 +2767,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3356,7 +2789,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3381,7 +2814,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3403,7 +2836,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3428,7 +2861,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3450,7 +2883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3492,7 +2925,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3797,16 +3230,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD61"/>
+      <selection activeCell="A27" sqref="A27:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3830,84 +3263,84 @@
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="220"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
+    <row r="1" spans="1:17">
+      <c r="A1" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="134"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="192" t="s">
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="192" t="s">
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6" t="s">
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="4" t="s">
+      <c r="M10" s="137"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -3955,7 +3388,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="139" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4">
@@ -4005,7 +3438,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="4"/>
+      <c r="A13" s="139"/>
       <c r="B13" s="4">
         <v>88</v>
       </c>
@@ -4053,7 +3486,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="4"/>
+      <c r="A14" s="139"/>
       <c r="B14" s="4">
         <v>100</v>
       </c>
@@ -4101,7 +3534,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="4"/>
+      <c r="A15" s="139"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -4157,8 +3590,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:17">
-      <c r="A16" s="191" t="s">
+    <row r="16" spans="1:17" hidden="1">
+      <c r="A16" s="144" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4">
@@ -4202,10 +3635,10 @@
         <f>D16+G16-J16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="195"/>
-    </row>
-    <row r="17" hidden="1" spans="1:17">
-      <c r="A17" s="82"/>
+      <c r="Q16" s="114"/>
+    </row>
+    <row r="17" spans="1:17" hidden="1">
+      <c r="A17" s="145"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -4256,10 +3689,10 @@
         <f>SUM(P16:P16)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="195"/>
+      <c r="Q17" s="114"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="139" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4">
@@ -4312,7 +3745,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="4"/>
+      <c r="A19" s="139"/>
       <c r="B19" s="4">
         <v>180</v>
       </c>
@@ -4363,7 +3796,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="4"/>
+      <c r="A20" s="139"/>
       <c r="B20" s="4">
         <v>240</v>
       </c>
@@ -4414,7 +3847,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="4"/>
+      <c r="A21" s="139"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -4470,64 +3903,64 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="221" t="s">
+    <row r="22" spans="1:17">
+      <c r="A22" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="221" t="s">
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="221" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="94"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="220" t="s">
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="57"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="220"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="134"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -4536,7 +3969,7 @@
       <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="196" t="s">
+      <c r="C45" s="115" t="s">
         <v>29</v>
       </c>
       <c r="E45" t="s">
@@ -4551,88 +3984,88 @@
       <c r="K45" t="s">
         <v>33</v>
       </c>
-      <c r="T45" s="65"/>
+      <c r="T45" s="41"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="185" t="s">
+      <c r="D46" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="185"/>
-      <c r="K46" s="185"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
-      <c r="T46" s="216"/>
+      <c r="T46" s="130"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="172" t="s">
+      <c r="D47" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="173"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="210"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="143"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
-      <c r="T47" s="216"/>
+      <c r="T47" s="130"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="172" t="s">
+      <c r="D48" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="173"/>
-      <c r="K48" s="210"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="143"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
-      <c r="T48" s="216"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="T48" s="130"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="196" t="s">
+      <c r="C50" s="115" t="s">
         <v>29</v>
       </c>
       <c r="E50" t="s">
@@ -4648,93 +4081,93 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="54" t="s">
+    <row r="51" spans="1:20">
+      <c r="A51" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="185" t="s">
+      <c r="D51" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="185"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="185"/>
-      <c r="K51" s="185"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="140"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="54" t="s">
+    <row r="52" spans="1:20">
+      <c r="A52" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="172" t="s">
+      <c r="D52" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
-      <c r="I52" s="173"/>
-      <c r="J52" s="173"/>
-      <c r="K52" s="210"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="143"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="54" t="s">
+    <row r="53" spans="1:20">
+      <c r="A53" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="172" t="s">
+      <c r="D53" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="173"/>
-      <c r="F53" s="173"/>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="210"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="143"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="3:10">
-      <c r="C54" s="186"/>
-      <c r="D54" s="197"/>
-      <c r="E54" s="197"/>
-      <c r="F54" s="197"/>
-      <c r="G54" s="197"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="197"/>
-      <c r="J54" s="197"/>
-    </row>
-    <row r="55" spans="1:11">
+    <row r="54" spans="1:20">
+      <c r="C54" s="107"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="196" t="s">
+      <c r="C55" s="115" t="s">
         <v>29</v>
       </c>
       <c r="E55" t="s">
@@ -4750,110 +4183,100 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="54" t="s">
+    <row r="56" spans="1:20">
+      <c r="A56" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="185" t="s">
+      <c r="D56" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="185"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="185"/>
-      <c r="K56" s="185"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="140"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="54" t="s">
+    <row r="57" spans="1:20">
+      <c r="A57" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="172" t="s">
+      <c r="D57" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="173"/>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="173"/>
-      <c r="K57" s="210"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="142"/>
+      <c r="K57" s="143"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="54" t="s">
+    <row r="58" spans="1:20">
+      <c r="A58" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="172" t="s">
+      <c r="D58" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="173"/>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-      <c r="I58" s="173"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="210"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="143"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="3:11">
-      <c r="C59" s="186"/>
-      <c r="D59" s="207"/>
-      <c r="E59" s="207"/>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
-      <c r="H59" s="207"/>
-      <c r="I59" s="207"/>
-      <c r="J59" s="207"/>
-      <c r="K59" s="207"/>
+    <row r="59" spans="1:20">
+      <c r="C59" s="107"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
+      <c r="J59" s="126"/>
+      <c r="K59" s="126"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="T60" s="65"/>
-    </row>
-    <row r="61" spans="20:20">
-      <c r="T61" s="65"/>
+      <c r="T60" s="41"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="T61" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="D52:K52"/>
     <mergeCell ref="D53:K53"/>
     <mergeCell ref="D56:K56"/>
     <mergeCell ref="D57:K57"/>
@@ -4863,20 +4286,29 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="$A44:$XFD68"/>
+      <selection activeCell="A44" sqref="A44:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4886,12 +4318,12 @@
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:1" ht="20.25">
+      <c r="A1" s="62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4900,7 +4332,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="196" t="s">
+      <c r="C19" s="115" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
@@ -4915,79 +4347,79 @@
       <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="65"/>
+      <c r="T19" s="41"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="185" t="s">
+      <c r="D20" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="185"/>
-      <c r="K20" s="185"/>
-      <c r="T20" s="216"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="T20" s="130"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="172" t="s">
+      <c r="D21" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="210"/>
-      <c r="T21" s="216"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="143"/>
+      <c r="T21" s="130"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="172" t="s">
+      <c r="D22" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="210"/>
-      <c r="T22" s="216"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="143"/>
+      <c r="T22" s="130"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="115" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
@@ -5003,84 +4435,84 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:20">
+      <c r="A25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="185" t="s">
+      <c r="D25" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="185"/>
-      <c r="K25" s="185"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="54" t="s">
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="172" t="s">
+      <c r="D26" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="210"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="54" t="s">
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="143"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="172" t="s">
+      <c r="D27" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="210"/>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28" s="186"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="143"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="C28" s="107"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="196" t="s">
+      <c r="C29" s="115" t="s">
         <v>29</v>
       </c>
       <c r="E29" t="s">
@@ -5096,467 +4528,444 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="54" t="s">
+    <row r="30" spans="1:20">
+      <c r="A30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="185" t="s">
+      <c r="D30" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="54" t="s">
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="172" t="s">
+      <c r="D31" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="210"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="54" t="s">
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="143"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="172" t="s">
+      <c r="D32" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="210"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="143"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>59</v>
       </c>
-      <c r="T33" s="65"/>
-    </row>
-    <row r="36" spans="20:20">
-      <c r="T36" s="65"/>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="T33" s="41"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="T36" s="41"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" ht="14.25"/>
-    <row r="44" spans="1:11">
-      <c r="A44" s="198" t="s">
+    <row r="44" spans="1:20">
+      <c r="A44" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="200" t="s">
+      <c r="B44" s="118"/>
+      <c r="C44" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="201"/>
-      <c r="E44" s="201" t="s">
+      <c r="D44" s="120"/>
+      <c r="E44" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="201"/>
-      <c r="G44" s="201"/>
-      <c r="H44" s="201"/>
-      <c r="I44" s="201"/>
-      <c r="J44" s="201"/>
-      <c r="K44" s="211"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="202"/>
-      <c r="B45" s="186"/>
-      <c r="C45" s="196"/>
-      <c r="K45" s="212"/>
-    </row>
-    <row r="46" ht="22.5" spans="1:12">
-      <c r="A46" s="203" t="s">
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="127"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="121"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="115"/>
+      <c r="K45" s="128"/>
+    </row>
+    <row r="46" spans="1:20" ht="22.5">
+      <c r="A46" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="212"/>
+      <c r="K46" s="128"/>
       <c r="L46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="204"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="206"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="205"/>
-      <c r="K47" s="212"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="202" t="s">
+    <row r="47" spans="1:20">
+      <c r="A47" s="123"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="K47" s="128"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="205"/>
-      <c r="C48" s="206" t="s">
+      <c r="B48" s="124"/>
+      <c r="C48" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="205"/>
-      <c r="E48" s="205" t="s">
+      <c r="D48" s="124"/>
+      <c r="E48" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="205"/>
+      <c r="F48" s="124"/>
       <c r="G48" t="s">
         <v>74</v>
       </c>
       <c r="I48" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="212"/>
+      <c r="K48" s="128"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="185" t="s">
+      <c r="D49" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="185"/>
-      <c r="K49" s="213"/>
-      <c r="T49" s="216"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="146"/>
+      <c r="T49" s="130"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="135"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="173"/>
-      <c r="K50" s="174"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="147"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
-      <c r="T50" s="216"/>
+      <c r="T50" s="130"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="135"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="173"/>
-      <c r="K51" s="174"/>
-      <c r="T51" s="216"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="147"/>
+      <c r="T51" s="130"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="204"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="207"/>
-      <c r="K52" s="214"/>
-      <c r="T52" s="197"/>
+      <c r="A52" s="123"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="129"/>
+      <c r="T52" s="116"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="202" t="s">
+      <c r="A53" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="205"/>
-      <c r="C53" s="206" t="s">
+      <c r="B53" s="124"/>
+      <c r="C53" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="205"/>
-      <c r="E53" s="205" t="s">
+      <c r="D53" s="124"/>
+      <c r="E53" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="205"/>
+      <c r="F53" s="124"/>
       <c r="G53" t="s">
         <v>74</v>
       </c>
       <c r="I53" t="s">
         <v>75</v>
       </c>
-      <c r="K53" s="212"/>
-      <c r="T53" s="197"/>
+      <c r="K53" s="128"/>
+      <c r="T53" s="116"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="135" t="s">
+      <c r="A54" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="208" t="s">
+      <c r="C54" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="209"/>
-      <c r="E54" s="209"/>
-      <c r="F54" s="209"/>
-      <c r="G54" s="209"/>
-      <c r="H54" s="209"/>
-      <c r="I54" s="209"/>
-      <c r="J54" s="209"/>
-      <c r="K54" s="215"/>
-      <c r="T54" s="197"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="149"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="149"/>
+      <c r="K54" s="150"/>
+      <c r="T54" s="116"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="135"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="208"/>
-      <c r="D55" s="209"/>
-      <c r="E55" s="209"/>
-      <c r="F55" s="209"/>
-      <c r="G55" s="209"/>
-      <c r="H55" s="209"/>
-      <c r="I55" s="209"/>
-      <c r="J55" s="209"/>
-      <c r="K55" s="215"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="149"/>
+      <c r="K55" s="150"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
-      <c r="T55" s="197"/>
+      <c r="T55" s="116"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="135"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="208"/>
-      <c r="D56" s="209"/>
-      <c r="E56" s="209"/>
-      <c r="F56" s="209"/>
-      <c r="G56" s="209"/>
-      <c r="H56" s="209"/>
-      <c r="I56" s="209"/>
-      <c r="J56" s="209"/>
-      <c r="K56" s="215"/>
-      <c r="T56" s="197"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="204"/>
-      <c r="K57" s="212"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="204" t="s">
+      <c r="A56" s="83"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="149"/>
+      <c r="K56" s="150"/>
+      <c r="T56" s="116"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="123"/>
+      <c r="K57" s="128"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K58" s="212"/>
+      <c r="K58" s="128"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="208" t="s">
+      <c r="C59" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
-      <c r="F59" s="209"/>
-      <c r="G59" s="209"/>
-      <c r="H59" s="209"/>
-      <c r="I59" s="209"/>
-      <c r="J59" s="209"/>
-      <c r="K59" s="215"/>
-      <c r="T59" s="216"/>
+      <c r="D59" s="149"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="149"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="149"/>
+      <c r="I59" s="149"/>
+      <c r="J59" s="149"/>
+      <c r="K59" s="150"/>
+      <c r="T59" s="130"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="135"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="208"/>
-      <c r="D60" s="209"/>
-      <c r="E60" s="209"/>
-      <c r="F60" s="209"/>
-      <c r="G60" s="209"/>
-      <c r="H60" s="209"/>
-      <c r="I60" s="209"/>
-      <c r="J60" s="209"/>
-      <c r="K60" s="215"/>
-      <c r="T60" s="216"/>
+      <c r="A60" s="83"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="149"/>
+      <c r="H60" s="149"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="150"/>
+      <c r="T60" s="130"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="135"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="208"/>
-      <c r="D61" s="209"/>
-      <c r="E61" s="209"/>
-      <c r="F61" s="209"/>
-      <c r="G61" s="209"/>
-      <c r="H61" s="209"/>
-      <c r="I61" s="209"/>
-      <c r="J61" s="209"/>
-      <c r="K61" s="215"/>
-      <c r="T61" s="216"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="204"/>
-      <c r="K62" s="212"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="204" t="s">
+      <c r="A61" s="83"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="150"/>
+      <c r="T61" s="130"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="123"/>
+      <c r="K62" s="128"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="K63" s="212"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="135" t="s">
+      <c r="K63" s="128"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="139"/>
+      <c r="E64" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5" t="s">
+      <c r="F64" s="139"/>
+      <c r="G64" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="5" t="s">
+      <c r="H64" s="138"/>
+      <c r="I64" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="71"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="152"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="135"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="71"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="137"/>
+      <c r="K65" s="152"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="135"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="71"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="139"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="138"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="152"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="204"/>
-      <c r="K67" s="212"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:11">
-      <c r="A68" s="217"/>
-      <c r="B68" s="218"/>
-      <c r="C68" s="218"/>
-      <c r="D68" s="218"/>
-      <c r="E68" s="218"/>
-      <c r="F68" s="218"/>
-      <c r="G68" s="218"/>
-      <c r="H68" s="218"/>
-      <c r="I68" s="218"/>
-      <c r="J68" s="218"/>
-      <c r="K68" s="219"/>
+      <c r="A67" s="123"/>
+      <c r="K67" s="128"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="131"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5565,16 +4974,37 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5586,52 +5016,52 @@
     <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
+      <c r="A1" s="62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="192" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="192" t="s">
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
+      <c r="J3" s="137"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="137"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -5679,7 +5109,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="139" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
@@ -5729,7 +5159,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="4"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="4">
         <v>88</v>
       </c>
@@ -5777,7 +5207,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="4"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="4">
         <v>100</v>
       </c>
@@ -5825,7 +5255,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="4"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -5881,8 +5311,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:17">
-      <c r="A9" s="191" t="s">
+    <row r="9" spans="1:17" hidden="1">
+      <c r="A9" s="144" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4">
@@ -5926,10 +5356,10 @@
         <f t="shared" ref="P9:P13" si="6">D9+G9-J9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="195"/>
-    </row>
-    <row r="10" hidden="1" spans="1:17">
-      <c r="A10" s="82"/>
+      <c r="Q9" s="114"/>
+    </row>
+    <row r="10" spans="1:17" hidden="1">
+      <c r="A10" s="145"/>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -5980,10 +5410,10 @@
         <f>SUM(P9:P9)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="195"/>
+      <c r="Q10" s="114"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="139" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
@@ -6036,7 +5466,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="4"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="4">
         <v>180</v>
       </c>
@@ -6087,7 +5517,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="4"/>
+      <c r="A13" s="139"/>
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -6138,7 +5568,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="4"/>
+      <c r="A14" s="139"/>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
@@ -6194,7 +5624,7 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -6202,48 +5632,48 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" ht="17.1" customHeight="1" spans="1:1">
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" s="187" customFormat="1" ht="27.95" customHeight="1" spans="1:12">
-      <c r="A20" s="193" t="s">
+    <row r="20" spans="1:12" s="108" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A20" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="193" t="s">
+      <c r="B20" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="193" t="s">
+      <c r="D20" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="193" t="s">
+      <c r="E20" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="193" t="s">
+      <c r="F20" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="193" t="s">
+      <c r="G20" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="193" t="s">
+      <c r="H20" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="194"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="139" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4">
@@ -6268,13 +5698,13 @@
         <f>C21+D21+E21-F21-G21</f>
         <v>82</v>
       </c>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
+      <c r="A22" s="139"/>
       <c r="B22" s="4">
         <v>88</v>
       </c>
@@ -6297,13 +5727,13 @@
         <f>C22+D22+E22-F22-G22</f>
         <v>40</v>
       </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4"/>
+      <c r="A23" s="139"/>
       <c r="B23" s="4">
         <v>100</v>
       </c>
@@ -6326,13 +5756,13 @@
         <f>C23+D23+E23-F23-G23</f>
         <v>266</v>
       </c>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
+      <c r="A24" s="139"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
@@ -6359,38 +5789,37 @@
         <f>C24+D24+E24-F24-G24</f>
         <v>388</v>
       </c>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6409,13 +5838,13 @@
     <col min="20" max="20" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:1">
-      <c r="A1" s="188" t="s">
+    <row r="1" spans="1:22" ht="22.5">
+      <c r="A1" s="109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="15:21">
-      <c r="O7" s="186"/>
+    <row r="7" spans="1:22">
+      <c r="O7" s="107"/>
       <c r="P7" s="4" t="s">
         <v>107</v>
       </c>
@@ -6431,13 +5860,13 @@
       <c r="T7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="U7" s="186"/>
-    </row>
-    <row r="8" spans="15:21">
-      <c r="O8" s="186" t="s">
+      <c r="U7" s="107"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="O8" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="21">
         <v>43133</v>
       </c>
       <c r="Q8" s="4" t="s">
@@ -6450,11 +5879,11 @@
         <v>500</v>
       </c>
       <c r="T8" s="4"/>
-      <c r="U8" s="186"/>
-    </row>
-    <row r="9" spans="15:21">
-      <c r="O9" s="186"/>
-      <c r="P9" s="31">
+      <c r="U8" s="107"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="O9" s="107"/>
+      <c r="P9" s="21">
         <v>43133</v>
       </c>
       <c r="Q9" s="4" t="s">
@@ -6467,14 +5896,14 @@
       <c r="T9" s="4">
         <v>50</v>
       </c>
-      <c r="U9" s="186"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="U9" s="107"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="O10" s="186"/>
-      <c r="P10" s="31">
+      <c r="O10" s="107"/>
+      <c r="P10" s="21">
         <v>43133</v>
       </c>
       <c r="Q10" s="4" t="s">
@@ -6487,14 +5916,14 @@
       <c r="T10" s="4">
         <v>200</v>
       </c>
-      <c r="U10" s="186"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="U10" s="107"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="O11" s="186"/>
-      <c r="P11" s="31">
+      <c r="O11" s="107"/>
+      <c r="P11" s="21">
         <v>43133</v>
       </c>
       <c r="Q11" s="4" t="s">
@@ -6507,14 +5936,14 @@
         <v>1000</v>
       </c>
       <c r="T11" s="4"/>
-      <c r="U11" s="186"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="U11" s="107"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="186"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="4" t="s">
         <v>19</v>
       </c>
@@ -6527,67 +5956,67 @@
         <f>SUM(T8:T11)</f>
         <v>250</v>
       </c>
-      <c r="U12" s="186"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="U12" s="107"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="186"/>
-      <c r="P13" s="189"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-    </row>
-    <row r="14" spans="15:21">
-      <c r="O14" s="186"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="O14" s="107"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>123</v>
       </c>
-      <c r="O15" s="186"/>
-      <c r="P15" s="4" t="s">
+      <c r="O15" s="107"/>
+      <c r="P15" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4" t="s">
+      <c r="S15" s="139"/>
+      <c r="T15" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
-      <c r="O16" s="186"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
       <c r="R16" s="4" t="s">
         <v>113</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="T16" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="U16" s="54" t="s">
+      <c r="U16" s="32" t="s">
         <v>117</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -6598,8 +6027,8 @@
       <c r="A17" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="186"/>
-      <c r="P17" s="190">
+      <c r="O17" s="107"/>
+      <c r="P17" s="111">
         <v>43133</v>
       </c>
       <c r="Q17" s="4" t="s">
@@ -6615,45 +6044,45 @@
       <c r="U17" s="4">
         <v>200</v>
       </c>
-      <c r="V17" s="54"/>
+      <c r="V17" s="32"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>130</v>
       </c>
-      <c r="O18" s="186"/>
-      <c r="P18" s="190">
+      <c r="O18" s="107"/>
+      <c r="P18" s="111">
         <v>43133</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="R18" s="54"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="4">
         <v>1000</v>
       </c>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-    </row>
-    <row r="19" spans="15:22">
-      <c r="O19" s="186"/>
-      <c r="P19" s="190">
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="O19" s="107"/>
+      <c r="P19" s="111">
         <v>43133</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="54"/>
+      <c r="R19" s="32"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
       <c r="V19" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="15:22">
-      <c r="O20" s="186"/>
+    <row r="20" spans="1:22">
+      <c r="O20" s="107"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4" t="s">
         <v>19</v>
@@ -6683,148 +6112,148 @@
       <c r="A21" t="s">
         <v>131</v>
       </c>
-      <c r="O21" s="186"/>
+      <c r="O21" s="107"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="139">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="5">
+      <c r="S21" s="139"/>
+      <c r="T21" s="151">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="6"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="U21" s="137"/>
+      <c r="V21" s="138"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>133</v>
       </c>
-      <c r="O22" s="186"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="186"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>134</v>
       </c>
-      <c r="O23" s="186"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>130</v>
       </c>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-    </row>
-    <row r="25" spans="15:21">
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>135</v>
       </c>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>136</v>
       </c>
-      <c r="O27" s="186"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="186"/>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>130</v>
       </c>
-      <c r="O29" s="186"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="186"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-    </row>
-    <row r="30" spans="15:21">
-      <c r="O30" s="186"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-    </row>
-    <row r="31" ht="29.1" customHeight="1" spans="1:21">
-      <c r="A31" s="102" t="s">
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+    </row>
+    <row r="31" spans="1:22" ht="29.1" customHeight="1">
+      <c r="A31" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="O31" s="186"/>
-      <c r="P31" s="186"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>139</v>
       </c>
-      <c r="O32" s="186"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="186"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
@@ -6855,23 +6284,22 @@
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="Q15:Q16"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="35.25" customWidth="1"/>
@@ -6881,7 +6309,7 @@
     <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:3">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -6890,94 +6318,93 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" ht="69.95" customHeight="1" spans="1:6">
-      <c r="A3" s="183">
-        <v>43136.3541666667</v>
-      </c>
-      <c r="B3" s="184" t="s">
+    <row r="3" spans="1:6" ht="69.95" customHeight="1">
+      <c r="A3" s="104">
+        <v>43136.354166666701</v>
+      </c>
+      <c r="B3" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="185">
+      <c r="C3" s="106">
         <v>400</v>
       </c>
-      <c r="D3" s="185">
+      <c r="D3" s="106">
         <v>200</v>
       </c>
-      <c r="E3" s="185">
+      <c r="E3" s="106">
         <v>40</v>
       </c>
-      <c r="F3" s="185">
+      <c r="F3" s="106">
         <f>C3-D3-E3</f>
         <v>160</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="3:6">
-      <c r="C4" s="186" t="s">
+    <row r="4" spans="1:6" ht="21" customHeight="1">
+      <c r="C4" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="186" t="s">
+      <c r="D4" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="186" t="s">
+      <c r="F4" s="107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="3:6">
-      <c r="C5" s="187" t="s">
+    <row r="5" spans="1:6" ht="45" customHeight="1">
+      <c r="C5" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="187" t="s">
+      <c r="F5" s="108" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -6987,431 +6414,454 @@
     <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1" spans="1:1">
+    <row r="1" spans="1:12" ht="37.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" ht="21" spans="1:1">
+    <row r="2" spans="1:12" ht="20.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A3" s="145" t="s">
+    <row r="3" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A3" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:6">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149" t="s">
+      <c r="F3" s="156"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.950000000000003" customHeight="1">
+      <c r="A4" s="176"/>
+      <c r="B4" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="150" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="151" t="s">
+      <c r="C4" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="90" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A5" s="153">
+    <row r="5" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A5" s="91">
         <v>43101</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A6" s="153">
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A6" s="91">
         <v>43102</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A7" s="153">
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A7" s="91">
         <v>43103</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A8" s="153">
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A8" s="91">
         <v>43104</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A9" s="153" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A9" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A10" s="153">
+      <c r="B9" s="94"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A10" s="91">
         <v>43131</v>
       </c>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A11" s="157" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A11" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A12" s="160" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A12" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="37" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" ht="21" customHeight="1" spans="1:1">
+      <c r="F12" s="159"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A14" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="163" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="169" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="J14" s="170" t="s">
+      <c r="J14" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="170" t="s">
+      <c r="K14" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="171" t="s">
+      <c r="L14" s="101" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A15" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="163"/>
+      <c r="C15" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="163"/>
+      <c r="E15" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="135" t="s">
+      <c r="F15" s="163"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="172" t="s">
+      <c r="J15" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="K15" s="173"/>
-      <c r="L15" s="174"/>
-    </row>
-    <row r="16" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A16" s="8" t="s">
+      <c r="K15" s="142"/>
+      <c r="L15" s="147"/>
+    </row>
+    <row r="16" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A16" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="8" t="s">
+      <c r="B16" s="139"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="167" t="s">
+      <c r="F16" s="139"/>
+      <c r="G16" s="169" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="167"/>
-      <c r="I16" s="136" t="s">
+      <c r="H16" s="169"/>
+      <c r="I16" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137" t="s">
+      <c r="J16" s="85"/>
+      <c r="K16" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="175"/>
-    </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:8">
-      <c r="A17" s="8" t="s">
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A17" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="8" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A18" s="8" t="s">
+      <c r="F17" s="139"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+    </row>
+    <row r="18" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A18" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="167" t="s">
+      <c r="F18" s="139"/>
+      <c r="G18" s="169" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="167"/>
-      <c r="I18" s="169" t="s">
+      <c r="H18" s="169"/>
+      <c r="I18" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="170" t="s">
+      <c r="J18" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="170" t="s">
+      <c r="K18" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="L18" s="171" t="s">
+      <c r="L18" s="101" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="19" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A19" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8" t="s">
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="135" t="s">
+      <c r="F19" s="139"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="172" t="s">
+      <c r="J19" s="141" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="173"/>
-      <c r="L19" s="174"/>
-    </row>
-    <row r="20" ht="27.75" customHeight="1" spans="9:12">
-      <c r="I20" s="136" t="s">
+      <c r="K19" s="142"/>
+      <c r="L19" s="147"/>
+    </row>
+    <row r="20" spans="1:12" ht="27.75" customHeight="1">
+      <c r="I20" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137" t="s">
+      <c r="J20" s="85"/>
+      <c r="K20" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="L20" s="175"/>
-    </row>
-    <row r="21" ht="27.75" customHeight="1" spans="1:1">
+      <c r="L20" s="102"/>
+    </row>
+    <row r="21" spans="1:12" ht="27.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A22" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="163" t="s">
+      <c r="B22" s="161"/>
+      <c r="C22" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-    </row>
-    <row r="23" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A23" s="62" t="s">
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A23" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="163"/>
+      <c r="C23" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="163"/>
+      <c r="E23" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-    </row>
-    <row r="24" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A24" s="8" t="s">
+      <c r="F23" s="163"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+    </row>
+    <row r="24" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A24" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="139"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="I24" s="169" t="s">
+      <c r="F24" s="139"/>
+      <c r="I24" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="170" t="s">
+      <c r="J24" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="170" t="s">
+      <c r="K24" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="L24" s="171" t="s">
+      <c r="L24" s="101" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A25" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="8" t="s">
+      <c r="B25" s="139"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="135" t="s">
+      <c r="F25" s="139"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="177"/>
-    </row>
-    <row r="26" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A26" s="8" t="s">
+      <c r="K25" s="139"/>
+      <c r="L25" s="172"/>
+    </row>
+    <row r="26" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A26" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8" t="s">
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="167" t="s">
+      <c r="F26" s="139"/>
+      <c r="G26" s="169" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="167"/>
-      <c r="I26" s="178" t="s">
+      <c r="H26" s="169"/>
+      <c r="I26" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="J26" s="179" t="s">
+      <c r="J26" s="151" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="180"/>
-      <c r="L26" s="181"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="1:12">
-      <c r="A27" s="8" t="s">
+      <c r="K26" s="137"/>
+      <c r="L26" s="152"/>
+    </row>
+    <row r="27" spans="1:12" ht="24" customHeight="1">
+      <c r="A27" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="136" t="s">
+      <c r="F27" s="139"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="J27" s="138" t="s">
+      <c r="J27" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="138"/>
-      <c r="L27" s="182"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
@@ -7420,50 +6870,26 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
@@ -7475,473 +6901,508 @@
     <col min="1" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:10" ht="20.25">
+      <c r="A1" s="62" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" ht="20.25" spans="1:1">
+    <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" ht="21" spans="1:1">
+    <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="177" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="103" t="s">
+      <c r="D4" s="178"/>
+      <c r="E4" s="198" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106" t="s">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="199"/>
       <c r="J5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A6" s="108">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="65">
         <v>43101</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="66">
         <v>10</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="67">
         <v>200</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D6" s="68">
         <v>30</v>
       </c>
-      <c r="E6" s="112">
+      <c r="E6" s="69">
         <v>40</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="70" t="s">
         <v>195</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A7" s="23">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="13">
         <v>43102</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="17">
         <v>10</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="14">
         <v>200</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D7" s="71">
         <v>30</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="44">
         <v>50</v>
       </c>
-      <c r="F7" s="115"/>
+      <c r="F7" s="72"/>
       <c r="J7" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A8" s="23">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A8" s="13">
         <v>43103</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="17">
         <v>10</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="14">
         <v>200</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="16">
         <v>30</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="44">
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A9" s="23">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A9" s="13">
         <v>43104</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="17">
         <v>10</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="14">
         <v>200</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="16">
         <v>30</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="44">
         <v>70</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="71">
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="44">
         <v>80</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="71"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A12" s="29">
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A12" s="19">
         <v>43131</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="17">
         <v>10</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="14">
         <v>200</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="16">
         <v>30</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="44">
         <v>90</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="119">
+      <c r="B13" s="76">
         <v>50</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>1000</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="12">
         <v>150</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="49">
         <v>90</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A14" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="26">
         <v>50</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="179" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77">
+      <c r="D14" s="180"/>
+      <c r="E14" s="50">
         <v>90</v>
       </c>
     </row>
-    <row r="16" ht="65.25" customHeight="1" spans="1:1">
+    <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" ht="32.25" customHeight="1" spans="1:11">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:19" ht="32.25" customHeight="1">
+      <c r="A17" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="161"/>
+      <c r="C17" s="161" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="121" t="s">
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="79" t="s">
+      <c r="I17" s="181"/>
+      <c r="J17" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="80"/>
-    </row>
-    <row r="18" ht="25.5" customHeight="1" spans="1:14">
-      <c r="A18" s="8" t="s">
+      <c r="K17" s="183"/>
+    </row>
+    <row r="18" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A18" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="184"/>
+      <c r="C18" s="185" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="67" t="s">
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="N18" s="113" t="s">
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="N18" s="70" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" ht="21" customHeight="1" spans="1:19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:19" ht="21" customHeight="1">
+      <c r="A19" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="138"/>
+      <c r="C19" s="184" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="185"/>
+      <c r="E19" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="184" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="138"/>
+      <c r="H19" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="138"/>
+      <c r="J19" s="184" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="N19" s="54" t="s">
+      <c r="K19" s="138"/>
+      <c r="N19" s="32" t="s">
         <v>146</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="P19" s="54" t="s">
+      <c r="P19" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q19" s="54" t="s">
+      <c r="Q19" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="R19" s="54" t="s">
+      <c r="R19" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="S19" s="54" t="s">
+      <c r="S19" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" ht="21" customHeight="1" spans="1:19">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:19" ht="21" customHeight="1">
+      <c r="A20" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="138"/>
+      <c r="C20" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9" t="s">
+      <c r="F20" s="151"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54" t="s">
+      <c r="K20" s="138"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="S20" s="54"/>
-    </row>
-    <row r="21" ht="21" customHeight="1" spans="1:19">
-      <c r="A21" s="9" t="s">
+      <c r="S20" s="32"/>
+    </row>
+    <row r="21" spans="1:19" ht="21" customHeight="1">
+      <c r="A21" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="138"/>
+      <c r="C21" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9" t="s">
+      <c r="F21" s="151"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-    </row>
-    <row r="22" ht="21" customHeight="1" spans="1:11">
-      <c r="A22" s="9" t="s">
+      <c r="K21" s="138"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+    </row>
+    <row r="22" spans="1:19" ht="21" customHeight="1">
+      <c r="A22" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="138"/>
+      <c r="C22" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9" t="s">
+      <c r="D22" s="138"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="1:11">
-      <c r="A23" s="9" t="s">
+      <c r="K22" s="138"/>
+    </row>
+    <row r="23" spans="1:19" ht="21" customHeight="1">
+      <c r="A23" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="138"/>
+      <c r="C23" s="184" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9" t="s">
+      <c r="D23" s="138"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="26" ht="32.25" customHeight="1" spans="1:11">
-      <c r="A26" s="122" t="s">
+      <c r="K23" s="138"/>
+    </row>
+    <row r="26" spans="1:19" ht="32.25" customHeight="1">
+      <c r="A26" s="186" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123" t="s">
+      <c r="B26" s="187"/>
+      <c r="C26" s="187" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="124" t="s">
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="188" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="124"/>
-      <c r="J26" s="121" t="s">
+      <c r="I26" s="188"/>
+      <c r="J26" s="181" t="s">
         <v>203</v>
       </c>
-      <c r="K26" s="121"/>
-    </row>
-    <row r="27" ht="25.5" customHeight="1" spans="1:11">
-      <c r="A27" s="125" t="s">
+      <c r="K26" s="181"/>
+    </row>
+    <row r="27" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A27" s="189" t="s">
         <v>221</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="141"/>
-    </row>
-    <row r="28" ht="21.75" customHeight="1" spans="1:11">
-      <c r="A28" s="132" t="s">
+      <c r="B27" s="190"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="86"/>
+    </row>
+    <row r="28" spans="1:19" ht="21.75" customHeight="1">
+      <c r="A28" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82" t="s">
+      <c r="D28" s="145"/>
+      <c r="E28" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="133" t="s">
+      <c r="F28" s="145"/>
+      <c r="G28" s="191" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="134"/>
-      <c r="I28" s="133" t="s">
+      <c r="H28" s="192"/>
+      <c r="I28" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
-    </row>
-    <row r="29" ht="21.75" customHeight="1" spans="1:11">
-      <c r="A29" s="135"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="71"/>
-    </row>
-    <row r="30" ht="21.75" customHeight="1" spans="1:11">
-      <c r="A30" s="136"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="77"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="194"/>
+    </row>
+    <row r="29" spans="1:19" ht="21.75" customHeight="1">
+      <c r="A29" s="83"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="152"/>
+    </row>
+    <row r="30" spans="1:19" ht="21.75" customHeight="1">
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
@@ -7951,55 +7412,19 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
@@ -8012,12 +7437,12 @@
     <col min="2" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:1">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1">
       <c r="A1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" ht="29.25" customHeight="1" spans="1:8">
+    <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>223</v>
       </c>
@@ -8029,21 +7454,21 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="41.25" customHeight="1" spans="1:1">
+    <row r="4" spans="1:9" ht="41.25" customHeight="1">
       <c r="A4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="5" ht="29.25" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="6" t="s">
         <v>148</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -8053,19 +7478,19 @@
         <v>149</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" ht="78.75" customHeight="1" spans="1:9">
-      <c r="A6" s="11">
-        <v>43136.3541666667</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:9" ht="78.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>43136.354166666701</v>
+      </c>
+      <c r="B6" s="200" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="4">
         <v>400</v>
       </c>
@@ -8081,608 +7506,608 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1"/>
-    <row r="9" ht="37.5" customHeight="1" spans="1:1">
+    <row r="8" spans="1:9" ht="30" customHeight="1"/>
+    <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:1">
+    <row r="10" spans="1:9" ht="20.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A11" s="228" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="156"/>
+      <c r="G11" s="228" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="178" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A12" s="229"/>
+      <c r="B12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="69"/>
-    </row>
-    <row r="13" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A13" s="23">
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+    </row>
+    <row r="13" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A13" s="13">
         <v>43101</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="15">
         <v>200</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="16">
         <v>200</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="14">
         <v>200</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="16">
         <v>200</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="17">
         <v>30</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="17">
         <v>30</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="43">
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A14" s="23">
+    <row r="14" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A14" s="13">
         <v>43102</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="14">
         <v>10</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="15">
         <v>200</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="16">
         <v>200</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="14">
         <v>200</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="16">
         <v>200</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="18">
         <v>30</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="18">
         <v>30</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="44">
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A15" s="23">
+    <row r="15" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A15" s="13">
         <v>43103</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="15">
         <v>200</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="16">
         <v>200</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="14">
         <v>200</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="16">
         <v>200</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="17">
         <v>30</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="17">
         <v>30</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="44">
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A16" s="23">
+    <row r="16" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A16" s="13">
         <v>43104</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="14">
         <v>10</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="15">
         <v>200</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="16">
         <v>200</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="14">
         <v>200</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="16">
         <v>200</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="17">
         <v>30</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="17">
         <v>30</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="44">
         <v>70</v>
       </c>
     </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="47" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A18" s="29">
+    <row r="18" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A18" s="19">
         <v>43131</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="14">
         <v>10</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="15">
         <v>200</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="16">
         <v>200</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="14">
         <v>200</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="16">
         <v>200</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="17">
         <v>30</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="17">
         <v>30</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="44">
         <v>90</v>
       </c>
     </row>
-    <row r="19" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="24">
         <v>50</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="11">
         <v>1000</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="12">
         <v>200</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="10">
         <v>200</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="12">
         <v>1000</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="9">
         <v>150</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="9">
         <v>150</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="49">
         <v>90</v>
       </c>
     </row>
-    <row r="20" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="204" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="36" t="s">
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="204" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39">
+      <c r="F20" s="159"/>
+      <c r="G20" s="26">
         <v>2888</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="26">
         <v>2888</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="50">
         <v>90</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="44.25" customHeight="1" spans="1:1">
+    <row r="22" spans="1:20" ht="30" customHeight="1"/>
+    <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1" spans="1:12">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A24" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="161"/>
+      <c r="C24" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="78" t="s">
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="205" t="s">
         <v>202</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79" t="s">
+      <c r="J24" s="205"/>
+      <c r="K24" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="80"/>
-    </row>
-    <row r="25" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A25" s="8" t="s">
+      <c r="L24" s="183"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A25" s="166" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="67" t="s">
+      <c r="B25" s="184"/>
+      <c r="C25" s="185" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="67" t="s">
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="O25" s="25" t="s">
+      <c r="H25" s="185"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="O25" s="206" t="s">
         <v>207</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-    </row>
-    <row r="26" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A26" s="44" t="s">
+      <c r="P25" s="206"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="206"/>
+      <c r="S25" s="206"/>
+      <c r="T25" s="206"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A26" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="208"/>
+      <c r="C26" s="209" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="96" t="s">
+      <c r="D26" s="210"/>
+      <c r="E26" s="211" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97" t="s">
+      <c r="F26" s="212"/>
+      <c r="G26" s="212" t="s">
         <v>210</v>
       </c>
-      <c r="H26" s="98"/>
-      <c r="I26" s="45" t="s">
+      <c r="H26" s="213"/>
+      <c r="I26" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="208"/>
+      <c r="K26" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="O26" s="81" t="s">
+      <c r="L26" s="208"/>
+      <c r="O26" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="82" t="s">
+      <c r="P26" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="81" t="s">
+      <c r="Q26" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="S26" s="81" t="s">
+      <c r="S26" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="T26" s="81" t="s">
+      <c r="T26" s="51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A27" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="83" t="s">
+      <c r="D27" s="137"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="215" t="s">
         <v>230</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="9" t="s">
+      <c r="J27" s="216"/>
+      <c r="K27" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54" t="s">
+      <c r="L27" s="138"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="T27" s="54"/>
-    </row>
-    <row r="28" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A28" s="9" t="s">
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A28" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="138"/>
+      <c r="C28" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="85" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="217" t="s">
         <v>231</v>
       </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="9" t="s">
+      <c r="J28" s="218"/>
+      <c r="K28" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-    </row>
-    <row r="29" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A29" s="9" t="s">
+      <c r="L28" s="138"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+    </row>
+    <row r="29" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A29" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="138"/>
+      <c r="C29" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="9" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A30" s="9" t="s">
+      <c r="L29" s="138"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A30" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="138"/>
+      <c r="C30" s="184" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="9" t="s">
+      <c r="D30" s="137"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" ht="29.25" customHeight="1"/>
-    <row r="32" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A32" s="41" t="s">
+      <c r="L30" s="138"/>
+    </row>
+    <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
+    <row r="32" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A32" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42" t="s">
+      <c r="B32" s="161"/>
+      <c r="C32" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="79" t="s">
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="78" t="s">
+      <c r="J32" s="182"/>
+      <c r="K32" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="78"/>
-    </row>
-    <row r="33" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A33" s="8" t="s">
+      <c r="L32" s="205"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A33" s="166" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
+      <c r="B33" s="184"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="219" t="s">
         <v>234</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="67"/>
-    </row>
-    <row r="34" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A34" s="49" t="s">
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="185"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="220" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="50" t="s">
+      <c r="D34" s="221"/>
+      <c r="E34" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52" t="s">
+      <c r="F34" s="221"/>
+      <c r="G34" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="52" t="s">
+      <c r="H34" s="223"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="222" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="88"/>
-      <c r="L34" s="87"/>
-    </row>
-    <row r="35" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="38" ht="47.25" customHeight="1"/>
-    <row r="39" ht="45" customHeight="1" spans="1:1">
+      <c r="K34" s="225"/>
+      <c r="L34" s="224"/>
+    </row>
+    <row r="35" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="138"/>
+    </row>
+    <row r="36" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="138"/>
+    </row>
+    <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
+    <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="40" ht="43.5" customHeight="1" spans="1:9">
-      <c r="A40" s="55" t="s">
+    <row r="40" spans="1:12" ht="43.5" customHeight="1">
+      <c r="A40" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="226" t="s">
         <v>243</v>
       </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="65"/>
-    </row>
-    <row r="41" ht="39" customHeight="1" spans="1:7">
+      <c r="F40" s="227"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="1:12" ht="39" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>244</v>
       </c>
@@ -8691,30 +8116,30 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" ht="44.25" customHeight="1" spans="1:9">
-      <c r="A42" s="59" t="s">
+    <row r="42" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A42" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="61" t="s">
+      <c r="F42" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-    </row>
-    <row r="43" ht="44.25" customHeight="1" spans="1:9">
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+    </row>
+    <row r="43" spans="1:12" ht="44.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>247</v>
       </c>
@@ -8730,14 +8155,14 @@
       <c r="E43" s="5">
         <v>8</v>
       </c>
-      <c r="F43" s="48">
-        <v>0</v>
-      </c>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-    </row>
-    <row r="44" ht="44.25" customHeight="1" spans="1:9">
+      <c r="F43" s="29">
+        <v>0</v>
+      </c>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+    </row>
+    <row r="44" spans="1:12" ht="44.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>248</v>
       </c>
@@ -8753,14 +8178,14 @@
       <c r="E44" s="5">
         <v>3</v>
       </c>
-      <c r="F44" s="48">
-        <v>0</v>
-      </c>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-    </row>
-    <row r="45" ht="44.25" customHeight="1" spans="1:9">
+      <c r="F44" s="29">
+        <v>0</v>
+      </c>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+    </row>
+    <row r="45" spans="1:12" ht="44.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>249</v>
       </c>
@@ -8776,18 +8201,18 @@
       <c r="E45" s="5">
         <v>86</v>
       </c>
-      <c r="F45" s="48">
-        <v>0</v>
-      </c>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-    </row>
-    <row r="46" ht="44.25" customHeight="1" spans="1:9">
-      <c r="A46" s="8" t="s">
+      <c r="F45" s="29">
+        <v>0</v>
+      </c>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+    </row>
+    <row r="46" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C46" s="4">
@@ -8802,25 +8227,25 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F46" s="48">
-        <v>0</v>
-      </c>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-    </row>
-    <row r="48" ht="76.5" customHeight="1"/>
-    <row r="49" ht="30" customHeight="1" spans="1:1">
+      <c r="F46" s="29">
+        <v>0</v>
+      </c>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+    </row>
+    <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
+    <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53" ht="27" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="27" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>253</v>
       </c>
@@ -8835,86 +8260,86 @@
       </c>
       <c r="H53" s="1"/>
     </row>
-    <row r="55" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A55" s="62" t="s">
+    <row r="55" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A55" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E55" s="62" t="s">
+      <c r="E55" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="F55" s="62" t="s">
+      <c r="F55" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="62" t="s">
+      <c r="G55" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="H55" s="101"/>
-    </row>
-    <row r="56" ht="19.5" customHeight="1" spans="1:8">
+      <c r="H55" s="61"/>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="64" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" ht="19.5" customHeight="1" spans="1:8">
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="E57" s="8" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="E57" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="58" ht="19.5" customHeight="1" spans="1:8">
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
       <c r="E58" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="65"/>
-    </row>
-    <row r="64" ht="22.5" spans="1:6">
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="41"/>
+    </row>
+    <row r="64" spans="1:8" ht="22.5">
       <c r="A64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="42" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="1"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="88" ht="26.25" customHeight="1" spans="1:5">
+    <row r="88" spans="1:8" ht="26.25" customHeight="1">
       <c r="A88" t="s">
         <v>265</v>
       </c>
@@ -8931,7 +8356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" ht="26.25" customHeight="1" spans="2:5">
+    <row r="89" spans="1:8" ht="26.25" customHeight="1">
       <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
         <v>268</v>
@@ -8941,118 +8366,118 @@
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" ht="32.25" customHeight="1" spans="1:1">
+    <row r="90" spans="1:8" ht="32.25" customHeight="1">
       <c r="A90" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="4" t="s">
+    <row r="91" spans="1:8">
+      <c r="B91" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="89" t="s">
+      <c r="D91" s="32"/>
+      <c r="E91" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="90" t="s">
+      <c r="F91" s="231" t="s">
         <v>273</v>
       </c>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="4"/>
-      <c r="C92" s="54" t="s">
+      <c r="G91" s="232"/>
+      <c r="H91" s="54"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="139"/>
+      <c r="C92" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="89" t="s">
+      <c r="D92" s="32"/>
+      <c r="E92" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="91"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="4" t="s">
+      <c r="F92" s="232"/>
+      <c r="G92" s="232"/>
+      <c r="H92" s="54"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="139" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D93" s="54"/>
-      <c r="E93" s="89" t="s">
+      <c r="D93" s="32"/>
+      <c r="E93" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="4"/>
-      <c r="C94" s="54" t="s">
+      <c r="F93" s="232"/>
+      <c r="G93" s="232"/>
+      <c r="H93" s="54"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" s="139"/>
+      <c r="C94" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="89" t="s">
+      <c r="D94" s="32"/>
+      <c r="E94" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F94" s="91"/>
-      <c r="G94" s="91"/>
-      <c r="H94" s="91"/>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="4"/>
-      <c r="C95" s="54" t="s">
+      <c r="F94" s="232"/>
+      <c r="G94" s="232"/>
+      <c r="H94" s="54"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" s="139"/>
+      <c r="C95" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="54"/>
-      <c r="E95" s="89" t="s">
+      <c r="D95" s="32"/>
+      <c r="E95" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="91"/>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="4"/>
-      <c r="C96" s="92" t="s">
+      <c r="F95" s="232"/>
+      <c r="G95" s="232"/>
+      <c r="H95" s="54"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" s="139"/>
+      <c r="C96" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="D96" s="54"/>
-      <c r="E96" s="93" t="s">
+      <c r="D96" s="32"/>
+      <c r="E96" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="F96" s="94" t="s">
+      <c r="F96" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="G96" s="94"/>
-      <c r="H96" s="94"/>
-    </row>
-    <row r="97" spans="2:5">
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+    </row>
+    <row r="97" spans="1:5">
       <c r="B97" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54" t="s">
+      <c r="C97" s="32"/>
+      <c r="D97" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E97" s="95"/>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="E97" s="58"/>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="1:5">
       <c r="B103" s="4" t="s">
         <v>281</v>
       </c>
@@ -9063,37 +8488,37 @@
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="1:5">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="1:5">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="1:5">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="1:5">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="1:5">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="1:5">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="1:5">
       <c r="B110" s="4" t="s">
         <v>132</v>
       </c>
@@ -9104,50 +8529,26 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="I32:J32"/>
@@ -9156,35 +8557,58 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="I33:L33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
@@ -9197,12 +8621,12 @@
     <col min="2" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:1">
+    <row r="1" spans="1:14" ht="31.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="3" ht="29.25" customHeight="1" spans="1:8">
+    <row r="3" spans="1:14" ht="29.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>223</v>
       </c>
@@ -9214,703 +8638,703 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="41.25" customHeight="1" spans="1:1">
+    <row r="4" spans="1:14" ht="41.25" customHeight="1">
       <c r="A4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="5" ht="29.25" customHeight="1" spans="1:9">
+    <row r="5" spans="1:14" ht="29.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="6" t="s">
         <v>148</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="67"/>
-    </row>
-    <row r="6" ht="78.75" customHeight="1" spans="1:9">
-      <c r="A6" s="11">
-        <v>43136.3541666667</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="H5" s="219"/>
+      <c r="I5" s="185"/>
+    </row>
+    <row r="6" spans="1:14" ht="78.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>43136.354166666701</v>
+      </c>
+      <c r="B6" s="200" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="4">
         <v>400</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="151">
         <v>200</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="8" ht="30" customHeight="1"/>
-    <row r="9" ht="37.5" customHeight="1" spans="1:1">
+      <c r="H6" s="137"/>
+      <c r="I6" s="138"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1"/>
+    <row r="9" spans="1:14" ht="37.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" ht="21" spans="1:1">
+    <row r="10" spans="1:14" ht="20.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A11" s="228" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="156"/>
+      <c r="G11" s="228" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="178" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A12" s="229"/>
+      <c r="B12" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="69"/>
-    </row>
-    <row r="13" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A13" s="23">
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+    </row>
+    <row r="13" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A13" s="13">
         <v>43101</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="15">
         <v>200</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="16">
         <v>200</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="14">
         <v>200</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="16">
         <v>200</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="17">
         <v>30</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="17">
         <v>30</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="43">
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A14" s="23">
+    <row r="14" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A14" s="13">
         <v>43102</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="14">
         <v>10</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="15">
         <v>200</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="16">
         <v>200</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="14">
         <v>200</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="16">
         <v>200</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="18">
         <v>30</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="18">
         <v>30</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="44">
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:14">
-      <c r="A15" s="23">
+    <row r="15" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A15" s="13">
         <v>43103</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="15">
         <v>200</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="16">
         <v>200</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="14">
         <v>200</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="16">
         <v>200</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="17">
         <v>30</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="17">
         <v>30</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="44">
         <v>60</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-    </row>
-    <row r="16" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A16" s="23">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A16" s="13">
         <v>43104</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="14">
         <v>10</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="15">
         <v>200</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="16">
         <v>200</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="14">
         <v>200</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="16">
         <v>200</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="17">
         <v>30</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="17">
         <v>30</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="44">
         <v>70</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="73" t="s">
+      <c r="L16" s="46" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:14">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="48" t="s">
         <v>290</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A18" s="29">
+    <row r="18" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A18" s="19">
         <v>43131</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="14">
         <v>10</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="15">
         <v>200</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="16">
         <v>200</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="14">
         <v>200</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="16">
         <v>200</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="17">
         <v>30</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="17">
         <v>30</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="44">
         <v>90</v>
       </c>
     </row>
-    <row r="19" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="24">
         <v>50</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="11">
         <v>1000</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="12">
         <v>200</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="10">
         <v>200</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="12">
         <v>1000</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="9">
         <v>150</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="9">
         <v>150</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="49">
         <v>90</v>
       </c>
     </row>
-    <row r="20" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="204" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="36" t="s">
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="204" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39">
+      <c r="F20" s="159"/>
+      <c r="G20" s="26">
         <v>2888</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="26">
         <v>2888</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="50">
         <v>90</v>
       </c>
     </row>
-    <row r="21" ht="23.25" customHeight="1" spans="5:6">
-      <c r="E21" s="40" t="s">
+    <row r="21" spans="1:20" ht="23.25" customHeight="1">
+      <c r="E21" s="233" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="44.25" customHeight="1" spans="1:1">
+      <c r="F21" s="233"/>
+    </row>
+    <row r="22" spans="1:20" ht="30" customHeight="1"/>
+    <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1" spans="1:12">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A24" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="161"/>
+      <c r="C24" s="161" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="78" t="s">
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="205" t="s">
         <v>293</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79" t="s">
+      <c r="J24" s="205"/>
+      <c r="K24" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="80"/>
-    </row>
-    <row r="25" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A25" s="8" t="s">
+      <c r="L24" s="183"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A25" s="166" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="184"/>
+      <c r="C25" s="219" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="43" t="s">
+      <c r="D25" s="219"/>
+      <c r="E25" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="10" t="s">
+      <c r="F25" s="234"/>
+      <c r="G25" s="234"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="219" t="s">
         <v>234</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="67"/>
-      <c r="O25" s="25" t="s">
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="185"/>
+      <c r="O25" s="206" t="s">
         <v>207</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-    </row>
-    <row r="26" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A26" s="44" t="s">
+      <c r="P25" s="206"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="206"/>
+      <c r="S25" s="206"/>
+      <c r="T25" s="206"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A26" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="208"/>
+      <c r="C26" s="209" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47" t="s">
+      <c r="D26" s="235"/>
+      <c r="E26" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47" t="s">
+      <c r="F26" s="236"/>
+      <c r="G26" s="236" t="s">
         <v>210</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="236"/>
+      <c r="I26" s="235" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="45" t="s">
+      <c r="J26" s="208"/>
+      <c r="K26" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="O26" s="81" t="s">
+      <c r="L26" s="208"/>
+      <c r="O26" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="82" t="s">
+      <c r="P26" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="81" t="s">
+      <c r="Q26" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="S26" s="81" t="s">
+      <c r="S26" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="T26" s="81" t="s">
+      <c r="T26" s="51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A27" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="83" t="s">
+      <c r="D27" s="137"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="215" t="s">
         <v>230</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="9" t="s">
+      <c r="J27" s="216"/>
+      <c r="K27" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54" t="s">
+      <c r="L27" s="138"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="T27" s="54"/>
-    </row>
-    <row r="28" ht="29.25" customHeight="1" spans="1:20">
-      <c r="A28" s="9" t="s">
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A28" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="138"/>
+      <c r="C28" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="85" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="217" t="s">
         <v>291</v>
       </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="9" t="s">
+      <c r="J28" s="218"/>
+      <c r="K28" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-    </row>
-    <row r="29" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A29" s="9" t="s">
+      <c r="L28" s="138"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+    </row>
+    <row r="29" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A29" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="138"/>
+      <c r="C29" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="9" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A30" s="9" t="s">
+      <c r="L29" s="138"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A30" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="138"/>
+      <c r="C30" s="184" t="s">
         <v>220</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="9" t="s">
+      <c r="D30" s="137"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" ht="29.25" customHeight="1"/>
-    <row r="32" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A32" s="41" t="s">
+      <c r="L30" s="138"/>
+    </row>
+    <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
+    <row r="32" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A32" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42" t="s">
+      <c r="B32" s="161"/>
+      <c r="C32" s="161" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="79" t="s">
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="78" t="s">
+      <c r="J32" s="182"/>
+      <c r="K32" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="78"/>
-    </row>
-    <row r="33" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A33" s="8" t="s">
+      <c r="L32" s="205"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A33" s="166" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
+      <c r="B33" s="184"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="219" t="s">
         <v>234</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="67"/>
-    </row>
-    <row r="34" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A34" s="49" t="s">
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="185"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="220" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="50" t="s">
+      <c r="D34" s="221"/>
+      <c r="E34" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52" t="s">
+      <c r="F34" s="221"/>
+      <c r="G34" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="52" t="s">
+      <c r="H34" s="223"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="222" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="88"/>
-      <c r="L34" s="87"/>
-    </row>
-    <row r="35" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" ht="29.25" customHeight="1" spans="1:12">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="38" ht="28.5" customHeight="1"/>
-    <row r="39" ht="48" customHeight="1" spans="1:1">
+      <c r="K34" s="225"/>
+      <c r="L34" s="224"/>
+    </row>
+    <row r="35" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="138"/>
+    </row>
+    <row r="36" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="138"/>
+    </row>
+    <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
+    <row r="39" spans="1:12" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="40" ht="45" customHeight="1" spans="1:6">
-      <c r="A40" s="55" t="s">
+    <row r="40" spans="1:12" ht="45" customHeight="1">
+      <c r="A40" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="226" t="s">
         <v>243</v>
       </c>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" ht="45" customHeight="1" spans="1:4">
-      <c r="A41" s="58" t="s">
+      <c r="F40" s="227"/>
+    </row>
+    <row r="41" spans="1:12" ht="45" customHeight="1">
+      <c r="A41" s="237" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="58"/>
+      <c r="B41" s="237"/>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" ht="45" customHeight="1" spans="1:6">
-      <c r="A42" s="59" t="s">
+    <row r="42" spans="1:12" ht="45" customHeight="1">
+      <c r="A42" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="61" t="s">
+      <c r="F42" s="37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" ht="45" customHeight="1" spans="1:6">
+    <row r="43" spans="1:12" ht="45" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>247</v>
       </c>
@@ -9926,11 +9350,11 @@
       <c r="E43" s="5">
         <v>8</v>
       </c>
-      <c r="F43" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="45" customHeight="1" spans="1:6">
+      <c r="F43" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="45" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>248</v>
       </c>
@@ -9946,11 +9370,11 @@
       <c r="E44" s="5">
         <v>3</v>
       </c>
-      <c r="F44" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="45" customHeight="1" spans="1:6">
+      <c r="F44" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>249</v>
       </c>
@@ -9966,15 +9390,15 @@
       <c r="E45" s="5">
         <v>86</v>
       </c>
-      <c r="F45" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="45" customHeight="1" spans="1:6">
-      <c r="A46" s="8" t="s">
+      <c r="F45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="45" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C46" s="4">
@@ -9989,22 +9413,22 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F46" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="82.5" customHeight="1"/>
-    <row r="48" ht="30" customHeight="1" spans="1:1">
+      <c r="F46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="82.5" customHeight="1"/>
+    <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="52" ht="27" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="27" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>253</v>
       </c>
@@ -10019,86 +9443,86 @@
       </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="54" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A54" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E54" s="62" t="s">
+      <c r="E54" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="H54" s="63"/>
-    </row>
-    <row r="55" ht="19.5" customHeight="1" spans="1:8">
+      <c r="H54" s="39"/>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="64" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="65"/>
-    </row>
-    <row r="56" ht="19.5" customHeight="1" spans="1:8">
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="41"/>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="E56" s="8" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="E56" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" ht="19.5" customHeight="1" spans="1:8">
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
       <c r="E57" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="65"/>
-    </row>
-    <row r="63" ht="22.5" spans="1:6">
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="63" spans="1:8" ht="22.5">
       <c r="A63" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F63" s="66" t="s">
+      <c r="F63" s="42" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="1"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="26.25" customHeight="1" spans="1:5">
+    <row r="87" spans="1:8" ht="26.25" customHeight="1">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -10115,7 +9539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" ht="26.25" customHeight="1" spans="2:5">
+    <row r="88" spans="1:8" ht="26.25" customHeight="1">
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
         <v>268</v>
@@ -10125,118 +9549,118 @@
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" ht="32.25" customHeight="1" spans="1:1">
+    <row r="89" spans="1:8" ht="32.25" customHeight="1">
       <c r="A89" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="4" t="s">
+    <row r="90" spans="1:8">
+      <c r="B90" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="54"/>
-      <c r="E90" s="89" t="s">
+      <c r="D90" s="32"/>
+      <c r="E90" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="90" t="s">
+      <c r="F90" s="231" t="s">
         <v>273</v>
       </c>
-      <c r="G90" s="91"/>
-      <c r="H90" s="91"/>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="4"/>
-      <c r="C91" s="54" t="s">
+      <c r="G90" s="232"/>
+      <c r="H90" s="54"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="139"/>
+      <c r="C91" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="89" t="s">
+      <c r="D91" s="32"/>
+      <c r="E91" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="4" t="s">
+      <c r="F91" s="232"/>
+      <c r="G91" s="232"/>
+      <c r="H91" s="54"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="139" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="C92" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="89" t="s">
+      <c r="D92" s="32"/>
+      <c r="E92" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="91"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="4"/>
-      <c r="C93" s="54" t="s">
+      <c r="F92" s="232"/>
+      <c r="G92" s="232"/>
+      <c r="H92" s="54"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="139"/>
+      <c r="C93" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="54"/>
-      <c r="E93" s="89" t="s">
+      <c r="D93" s="32"/>
+      <c r="E93" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="4"/>
-      <c r="C94" s="54" t="s">
+      <c r="F93" s="232"/>
+      <c r="G93" s="232"/>
+      <c r="H93" s="54"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" s="139"/>
+      <c r="C94" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="89" t="s">
+      <c r="D94" s="32"/>
+      <c r="E94" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="F94" s="91"/>
-      <c r="G94" s="91"/>
-      <c r="H94" s="91"/>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="4"/>
-      <c r="C95" s="92" t="s">
+      <c r="F94" s="232"/>
+      <c r="G94" s="232"/>
+      <c r="H94" s="54"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" s="139"/>
+      <c r="C95" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="D95" s="54"/>
-      <c r="E95" s="93" t="s">
+      <c r="D95" s="32"/>
+      <c r="E95" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="F95" s="94" t="s">
+      <c r="F95" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="G95" s="94"/>
-      <c r="H95" s="94"/>
-    </row>
-    <row r="96" spans="2:5">
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="B96" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="54" t="s">
+      <c r="C96" s="32"/>
+      <c r="D96" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E96" s="95"/>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="E96" s="58"/>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="1:4">
       <c r="B102" s="4" t="s">
         <v>281</v>
       </c>
@@ -10247,37 +9671,37 @@
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="1:4">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="1:4">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="1:4">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="1:4">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="1:4">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="1:4">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="1:4">
       <c r="B109" s="4" t="s">
         <v>132</v>
       </c>
@@ -10288,54 +9712,25 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F90:G94"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="I32:J32"/>
@@ -10344,29 +9739,58 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="I33:L33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F90:G94"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/alice/20180423后台财务更新.xlsx
+++ b/doc/alice/20180423后台财务更新.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="298">
   <si>
     <t>收：</t>
   </si>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t>课时版训练营退费</t>
-  </si>
-  <si>
-    <t>课时班的订单收入</t>
   </si>
   <si>
     <t>营业额版提现的分成收入</t>
@@ -1171,6 +1168,14 @@
   </si>
   <si>
     <t>课时版训练营收入(课时费)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠课</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时班的订单收入(课程+活动)</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -2037,7 +2042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2447,96 +2452,72 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2545,22 +2526,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,6 +2574,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,64 +2643,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2653,104 +2742,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3306,41 +3314,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="136" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="136" t="s">
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="137"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="137" t="s">
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="137"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="139" t="s">
+      <c r="M10" s="144"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="139"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="145"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -3388,7 +3396,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="142" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4">
@@ -3438,7 +3446,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="139"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="4">
         <v>88</v>
       </c>
@@ -3486,7 +3494,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="139"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="4">
         <v>100</v>
       </c>
@@ -3534,7 +3542,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="139"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -3591,7 +3599,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="140" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4">
@@ -3638,7 +3646,7 @@
       <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="145"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -3692,7 +3700,7 @@
       <c r="Q17" s="114"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="142" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4">
@@ -3745,7 +3753,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="139"/>
+      <c r="A19" s="142"/>
       <c r="B19" s="4">
         <v>180</v>
       </c>
@@ -3796,7 +3804,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="139"/>
+      <c r="A20" s="142"/>
       <c r="B20" s="4">
         <v>240</v>
       </c>
@@ -3847,7 +3855,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="139"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
@@ -3996,16 +4004,16 @@
       <c r="C46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="140" t="s">
+      <c r="D46" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4021,16 +4029,16 @@
       <c r="C47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="141" t="s">
+      <c r="D47" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="143"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="138"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4046,16 +4054,16 @@
       <c r="C48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="141" t="s">
+      <c r="D48" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="143"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="138"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4091,16 +4099,16 @@
       <c r="C51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="140" t="s">
+      <c r="D51" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
+      <c r="J51" s="139"/>
+      <c r="K51" s="139"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4115,16 +4123,16 @@
       <c r="C52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="141" t="s">
+      <c r="D52" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="143"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="138"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4139,16 +4147,16 @@
       <c r="C53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="141" t="s">
+      <c r="D53" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="143"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="138"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4193,16 +4201,16 @@
       <c r="C56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="140" t="s">
+      <c r="D56" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4217,16 +4225,16 @@
       <c r="C57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="141" t="s">
+      <c r="D57" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="143"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="138"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4241,16 +4249,16 @@
       <c r="C58" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="141" t="s">
+      <c r="D58" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="142"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="143"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="138"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4277,6 +4285,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
     <mergeCell ref="D53:K53"/>
     <mergeCell ref="D56:K56"/>
     <mergeCell ref="D57:K57"/>
@@ -4293,9 +4304,6 @@
     <mergeCell ref="D52:K52"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4359,16 +4367,16 @@
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="140" t="s">
+      <c r="D20" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
       <c r="T20" s="130"/>
     </row>
     <row r="21" spans="1:20">
@@ -4381,16 +4389,16 @@
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
       <c r="T21" s="130"/>
     </row>
     <row r="22" spans="1:20">
@@ -4403,16 +4411,16 @@
       <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
       <c r="T22" s="130"/>
     </row>
     <row r="24" spans="1:20">
@@ -4445,16 +4453,16 @@
       <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="140" t="s">
+      <c r="D25" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="32" t="s">
@@ -4466,16 +4474,16 @@
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="143"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="32" t="s">
@@ -4487,16 +4495,16 @@
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="143"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="107"/>
@@ -4538,16 +4546,16 @@
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="140" t="s">
+      <c r="D30" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="32" t="s">
@@ -4559,16 +4567,16 @@
       <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="32" t="s">
@@ -4580,16 +4588,16 @@
       <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="143"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -4699,30 +4707,30 @@
       <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="140" t="s">
+      <c r="D49" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="146"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="152"/>
       <c r="T49" s="130"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="83"/>
       <c r="B50" s="32"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="147"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="151"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -4732,14 +4740,14 @@
       <c r="A51" s="83"/>
       <c r="B51" s="32"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="147"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="151"/>
       <c r="T51" s="130"/>
     </row>
     <row r="52" spans="1:20">
@@ -4903,49 +4911,49 @@
       <c r="B64" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="139" t="s">
+      <c r="C64" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="139"/>
-      <c r="E64" s="139" t="s">
+      <c r="D64" s="142"/>
+      <c r="E64" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="139"/>
-      <c r="G64" s="151" t="s">
+      <c r="F64" s="142"/>
+      <c r="G64" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="138"/>
-      <c r="I64" s="151" t="s">
+      <c r="H64" s="145"/>
+      <c r="I64" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="137"/>
-      <c r="K64" s="152"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="147"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="83"/>
       <c r="B65" s="32"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="139"/>
-      <c r="F65" s="139"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="137"/>
-      <c r="K65" s="152"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="146"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="146"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="147"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="83"/>
       <c r="B66" s="32"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="139"/>
-      <c r="E66" s="139"/>
-      <c r="F66" s="139"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="151"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="152"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="146"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="146"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="147"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="123"/>
@@ -4966,6 +4974,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -4974,28 +5004,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5027,41 +5035,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="136" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="136" t="s">
+      <c r="G3" s="144"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="137" t="s">
+      <c r="J3" s="144"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="137"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="139" t="s">
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
+      <c r="A4" s="141"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -5109,7 +5117,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="142" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
@@ -5159,7 +5167,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="139"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="4">
         <v>88</v>
       </c>
@@ -5207,7 +5215,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="139"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="4">
         <v>100</v>
       </c>
@@ -5255,7 +5263,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="139"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -5312,7 +5320,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="140" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4">
@@ -5359,7 +5367,7 @@
       <c r="Q9" s="114"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="145"/>
+      <c r="A10" s="141"/>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -5413,7 +5421,7 @@
       <c r="Q10" s="114"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="142" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
@@ -5466,7 +5474,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="139"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="4">
         <v>180</v>
       </c>
@@ -5517,7 +5525,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="139"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -5568,7 +5576,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="139"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
@@ -5673,7 +5681,7 @@
       <c r="L20" s="113"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="142" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="4">
@@ -5704,7 +5712,7 @@
       <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="139"/>
+      <c r="A22" s="142"/>
       <c r="B22" s="4">
         <v>88</v>
       </c>
@@ -5733,7 +5741,7 @@
       <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="139"/>
+      <c r="A23" s="142"/>
       <c r="B23" s="4">
         <v>100</v>
       </c>
@@ -5762,7 +5770,7 @@
       <c r="L23" s="59"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="139"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
@@ -5801,17 +5809,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5984,21 +5992,21 @@
         <v>123</v>
       </c>
       <c r="O15" s="107"/>
-      <c r="P15" s="139" t="s">
+      <c r="P15" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="139" t="s">
+      <c r="Q15" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="139" t="s">
+      <c r="R15" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139" t="s">
+      <c r="S15" s="142"/>
+      <c r="T15" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
@@ -6117,17 +6125,17 @@
       <c r="Q21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="139">
+      <c r="R21" s="142">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="139"/>
-      <c r="T21" s="151">
+      <c r="S21" s="142"/>
+      <c r="T21" s="146">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="137"/>
-      <c r="V21" s="138"/>
+      <c r="U21" s="144"/>
+      <c r="V21" s="145"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6397,16 +6405,16 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
@@ -6426,15 +6434,15 @@
       <c r="A3" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155" t="s">
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="156"/>
+      <c r="F3" s="171"/>
     </row>
     <row r="4" spans="1:12" ht="33.950000000000003" customHeight="1">
       <c r="A4" s="176"/>
@@ -6442,16 +6450,20 @@
         <v>159</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="90" t="s">
-        <v>162</v>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27.75" customHeight="1">
@@ -6496,7 +6508,7 @@
     </row>
     <row r="9" spans="1:12" ht="27.75" customHeight="1">
       <c r="A9" s="91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="94"/>
       <c r="C9" s="93"/>
@@ -6528,186 +6540,186 @@
       <c r="A12" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="172" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="159"/>
+      <c r="F12" s="174"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A14" s="162" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A14" s="160" t="s">
+      <c r="B14" s="163"/>
+      <c r="C14" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
       <c r="H14" s="27"/>
       <c r="I14" s="99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J14" s="100" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="101" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A15" s="165" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="165"/>
+      <c r="E15" s="166" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A15" s="163" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="164" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="163"/>
-      <c r="E15" s="164" t="s">
+      <c r="F15" s="165"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="163"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="83" t="s">
+      <c r="J15" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="141" t="s">
+      <c r="K15" s="137"/>
+      <c r="L15" s="151"/>
+    </row>
+    <row r="16" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A16" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="142"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="K15" s="142"/>
-      <c r="L15" s="147"/>
-    </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A16" s="166" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="166" t="s">
+      <c r="F16" s="142"/>
+      <c r="G16" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="169" t="s">
+      <c r="H16" s="155"/>
+      <c r="I16" s="84" t="s">
         <v>176</v>
-      </c>
-      <c r="H16" s="169"/>
-      <c r="I16" s="84" t="s">
-        <v>177</v>
       </c>
       <c r="J16" s="85"/>
       <c r="K16" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="102"/>
+    </row>
+    <row r="17" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A17" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="142"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="142"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+    </row>
+    <row r="18" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A18" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="102"/>
-    </row>
-    <row r="17" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A17" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-    </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A18" s="166" t="s">
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="142"/>
+      <c r="G18" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="169" t="s">
+      <c r="H18" s="155"/>
+      <c r="I18" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="169"/>
-      <c r="I18" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" s="101" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A19" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="83" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A19" s="166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="83" t="s">
+      <c r="J19" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="141" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="142"/>
-      <c r="L19" s="147"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:12" ht="27.75" customHeight="1">
       <c r="I20" s="84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="85"/>
       <c r="K20" s="85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" s="102"/>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A22" s="162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A22" s="160" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="162" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
       <c r="H22" s="27"/>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
@@ -6715,137 +6727,147 @@
       <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="164" t="s">
+      <c r="B23" s="165"/>
+      <c r="C23" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="164" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="163"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="165"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
     </row>
     <row r="24" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="166" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="142"/>
+      <c r="I24" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A25" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="142"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="142"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="142"/>
+      <c r="L25" s="158"/>
+    </row>
+    <row r="26" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A26" s="154" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="142"/>
+      <c r="G26" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="139"/>
-      <c r="I24" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="101" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A25" s="166" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" s="139"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="83" t="s">
+      <c r="H26" s="155"/>
+      <c r="I26" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="J25" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="K25" s="139"/>
-      <c r="L25" s="172"/>
-    </row>
-    <row r="26" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A26" s="166" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="139"/>
-      <c r="G26" s="169" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="169"/>
-      <c r="I26" s="103" t="s">
+      <c r="K26" s="144"/>
+      <c r="L26" s="147"/>
+    </row>
+    <row r="27" spans="1:12" ht="24" customHeight="1">
+      <c r="A27" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="154" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="142"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="J26" s="151" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="137"/>
-      <c r="L26" s="152"/>
-    </row>
-    <row r="27" spans="1:12" ht="24" customHeight="1">
-      <c r="A27" s="166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="139"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="173" t="s">
-        <v>187</v>
-      </c>
-      <c r="K27" s="173"/>
-      <c r="L27" s="174"/>
+      <c r="J27" s="156" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="156"/>
+      <c r="L27" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
@@ -6854,34 +6876,24 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:L27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6903,7 +6915,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25">
@@ -6915,32 +6927,32 @@
       <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="198" t="s">
+      <c r="D4" s="198"/>
+      <c r="E4" s="181" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="63" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A5" s="199"/>
-      <c r="B5" s="199"/>
-      <c r="C5" s="63" t="s">
+      <c r="D5" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="E5" s="182"/>
+      <c r="J5" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E5" s="199"/>
-      <c r="J5" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
@@ -6960,10 +6972,10 @@
         <v>40</v>
       </c>
       <c r="G6" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
@@ -6984,7 +6996,7 @@
       </c>
       <c r="F7" s="72"/>
       <c r="J7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
@@ -7004,7 +7016,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
@@ -7026,7 +7038,7 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
@@ -7037,7 +7049,7 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
@@ -7085,8 +7097,8 @@
       <c r="B14" s="26">
         <v>50</v>
       </c>
-      <c r="C14" s="179" t="s">
-        <v>199</v>
+      <c r="C14" s="199" t="s">
+        <v>198</v>
       </c>
       <c r="D14" s="180"/>
       <c r="E14" s="50">
@@ -7095,140 +7107,140 @@
     </row>
     <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="160" t="s">
+      <c r="A17" s="162" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161" t="s">
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="190" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="181" t="s">
+      <c r="I17" s="190"/>
+      <c r="J17" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="I17" s="181"/>
-      <c r="J17" s="182" t="s">
+      <c r="K17" s="195"/>
+    </row>
+    <row r="18" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A18" s="154" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="183"/>
-    </row>
-    <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="166" t="s">
+      <c r="B18" s="193"/>
+      <c r="C18" s="196" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="184"/>
-      <c r="C18" s="185" t="s">
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="185" t="s">
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="N18" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="N18" s="70" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="21" customHeight="1">
+      <c r="A19" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="145"/>
+      <c r="C19" s="193" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="151" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="184" t="s">
+      <c r="D19" s="196"/>
+      <c r="E19" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="185"/>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="193" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="184" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="184" t="s">
+      <c r="G19" s="145"/>
+      <c r="H19" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="138"/>
-      <c r="J19" s="184" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="138"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="193" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="145"/>
       <c r="N19" s="32" t="s">
         <v>146</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="P19" s="32" t="s">
+      <c r="Q19" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="R19" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="S19" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="184" t="s">
+      <c r="A20" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="184" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="138"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="145"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" s="138"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="145"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="S20" s="32"/>
+    </row>
+    <row r="21" spans="1:19" ht="21" customHeight="1">
+      <c r="A21" s="193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="145"/>
+      <c r="C21" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="S20" s="32"/>
-    </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="184" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="138"/>
+      <c r="D21" s="145"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="138"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="145"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
@@ -7237,69 +7249,69 @@
       <c r="S21" s="32"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="184" t="s">
+      <c r="A22" s="193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="145"/>
+      <c r="C22" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="184" t="s">
+      <c r="D22" s="145"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="145"/>
+    </row>
+    <row r="23" spans="1:19" ht="21" customHeight="1">
+      <c r="A23" s="193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="145"/>
+      <c r="C23" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" s="138"/>
-    </row>
-    <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="184" t="s">
+      <c r="D23" s="145"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="145"/>
+    </row>
+    <row r="26" spans="1:19" ht="32.25" customHeight="1">
+      <c r="A26" s="187" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="188"/>
+      <c r="C26" s="188" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="189" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="189"/>
+      <c r="J26" s="190" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="190"/>
+    </row>
+    <row r="27" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A27" s="191" t="s">
         <v>220</v>
       </c>
-      <c r="D23" s="138"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="138"/>
-    </row>
-    <row r="26" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A26" s="186" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="188" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="188"/>
-      <c r="J26" s="181" t="s">
-        <v>203</v>
-      </c>
-      <c r="K26" s="181"/>
-    </row>
-    <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="189" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" s="190"/>
+      <c r="B27" s="192"/>
       <c r="C27" s="77"/>
       <c r="D27" s="78"/>
       <c r="E27" s="79"/>
@@ -7317,52 +7329,90 @@
       <c r="B28" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145" t="s">
+      <c r="D28" s="141"/>
+      <c r="E28" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="145"/>
-      <c r="G28" s="191" t="s">
+      <c r="F28" s="141"/>
+      <c r="G28" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="192"/>
-      <c r="I28" s="191" t="s">
+      <c r="H28" s="184"/>
+      <c r="I28" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="186"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="83"/>
       <c r="B29" s="32"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="152"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="147"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1">
       <c r="A30" s="84"/>
       <c r="B30" s="85"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="197"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="179"/>
       <c r="K30" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
@@ -7379,44 +7429,6 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7439,12 +7451,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7456,18 +7468,18 @@
     </row>
     <row r="4" spans="1:9" ht="41.25" customHeight="1">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="6" t="s">
         <v>148</v>
       </c>
@@ -7486,11 +7498,11 @@
       <c r="A6" s="8">
         <v>43136.354166666701</v>
       </c>
-      <c r="B6" s="200" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="202"/>
+      <c r="B6" s="228" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="229"/>
+      <c r="D6" s="230"/>
       <c r="E6" s="4">
         <v>400</v>
       </c>
@@ -7516,30 +7528,30 @@
       <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="231" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="203" t="s">
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="156"/>
-      <c r="G11" s="228" t="s">
+      <c r="F11" s="171"/>
+      <c r="G11" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="228" t="s">
+      <c r="H11" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="178" t="s">
-        <v>191</v>
+      <c r="I11" s="198" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="229"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="10" t="s">
         <v>115</v>
       </c>
@@ -7547,17 +7559,17 @@
         <v>117</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="229"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="200"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="13">
@@ -7677,31 +7689,31 @@
     </row>
     <row r="17" spans="1:20" ht="27.75" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="27.75" customHeight="1">
@@ -7766,15 +7778,15 @@
       <c r="A20" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="204" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="159"/>
+      <c r="F20" s="174"/>
       <c r="G20" s="26">
         <v>2888</v>
       </c>
@@ -7788,154 +7800,154 @@
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="160" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
+      <c r="A24" s="162" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
       <c r="H24" s="27"/>
-      <c r="I24" s="205" t="s">
-        <v>202</v>
-      </c>
-      <c r="J24" s="205"/>
-      <c r="K24" s="182" t="s">
+      <c r="I24" s="213" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="213"/>
+      <c r="K24" s="194" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="183"/>
+      <c r="L24" s="195"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="154" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="193"/>
+      <c r="C25" s="196" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="184"/>
-      <c r="C25" s="185" t="s">
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="185" t="s">
+      <c r="H25" s="196"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="O25" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="H25" s="185"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="O25" s="206" t="s">
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A26" s="221" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="222"/>
+      <c r="C26" s="223" t="s">
         <v>207</v>
       </c>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
-      <c r="T25" s="206"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="207" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209" t="s">
+      <c r="D26" s="224"/>
+      <c r="E26" s="225" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="210"/>
-      <c r="E26" s="211" t="s">
+      <c r="F26" s="226"/>
+      <c r="G26" s="226" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="213"/>
-      <c r="I26" s="209" t="s">
+      <c r="H26" s="227"/>
+      <c r="I26" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="208"/>
-      <c r="K26" s="209" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="208"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="222"/>
       <c r="O26" s="51" t="s">
         <v>146</v>
       </c>
       <c r="P26" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="51" t="s">
+      <c r="R26" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="R26" s="51" t="s">
+      <c r="S26" s="51" t="s">
         <v>213</v>
-      </c>
-      <c r="S26" s="51" t="s">
-        <v>214</v>
       </c>
       <c r="T26" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="184" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="215" t="s">
-        <v>230</v>
-      </c>
-      <c r="J27" s="216"/>
-      <c r="K27" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="138"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="144"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="218" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="219"/>
+      <c r="K27" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27" s="145"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
       <c r="S27" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A28" s="193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="145"/>
+      <c r="C28" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="T27" s="32"/>
-    </row>
-    <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="184" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="217" t="s">
-        <v>231</v>
-      </c>
-      <c r="J28" s="218"/>
-      <c r="K28" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="138"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="216" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="217"/>
+      <c r="K28" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="145"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
@@ -7944,181 +7956,181 @@
       <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="145"/>
+      <c r="C29" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="184" t="s">
+      <c r="D29" s="144"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="145"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A30" s="193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="145"/>
+      <c r="C30" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="138"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L30" s="138"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="145"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="160" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
+      <c r="A32" s="162" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="182" t="s">
-        <v>202</v>
-      </c>
-      <c r="J32" s="182"/>
-      <c r="K32" s="205" t="s">
+      <c r="I32" s="194" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="194"/>
+      <c r="K32" s="213" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="205"/>
+      <c r="L32" s="213"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="154" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="193"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="214" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="184"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219" t="s">
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="219" t="s">
-        <v>234</v>
-      </c>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="185"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="196"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="207" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="220" t="s">
+      <c r="D34" s="208"/>
+      <c r="E34" s="207" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="221"/>
-      <c r="E34" s="220" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="221"/>
-      <c r="G34" s="222" t="s">
+      <c r="F34" s="208"/>
+      <c r="G34" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="223"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="222" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="225"/>
-      <c r="L34" s="224"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="212"/>
+      <c r="L34" s="211"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="138"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="145"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="138"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="145"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.5" customHeight="1">
       <c r="A40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="C40" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="D40" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="E40" s="205" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="226" t="s">
-        <v>243</v>
-      </c>
-      <c r="F40" s="227"/>
+      <c r="F40" s="206"/>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
       <c r="I40" s="41"/>
     </row>
     <row r="41" spans="1:12" ht="39" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="44.25" customHeight="1">
       <c r="A42" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>9</v>
@@ -8141,7 +8153,7 @@
     </row>
     <row r="43" spans="1:12" ht="44.25" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" s="4">
         <v>83</v>
@@ -8164,7 +8176,7 @@
     </row>
     <row r="44" spans="1:12" ht="44.25" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="4">
         <v>88</v>
@@ -8187,7 +8199,7 @@
     </row>
     <row r="45" spans="1:12" ht="44.25" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" s="4">
         <v>100</v>
@@ -8213,7 +8225,7 @@
         <v>132</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
@@ -8237,58 +8249,58 @@
     <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
     <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1">
       <c r="A55" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="C55" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="38" t="s">
-        <v>259</v>
-      </c>
       <c r="E55" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="G55" s="38" t="s">
         <v>258</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>259</v>
       </c>
       <c r="H55" s="61"/>
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>120</v>
@@ -8299,12 +8311,12 @@
     </row>
     <row r="57" spans="1:8" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
       <c r="E57" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -8325,10 +8337,10 @@
     </row>
     <row r="64" spans="1:8" ht="22.5">
       <c r="A64" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="42" t="s">
         <v>262</v>
-      </c>
-      <c r="F64" s="42" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="66" spans="6:6">
@@ -8336,21 +8348,21 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="26.25" customHeight="1">
       <c r="A88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>17</v>
@@ -8359,133 +8371,133 @@
     <row r="89" spans="1:8" ht="26.25" customHeight="1">
       <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:8" ht="32.25" customHeight="1">
       <c r="A90" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="142" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" s="139" t="s">
-        <v>271</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="F91" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="231" t="s">
-        <v>273</v>
-      </c>
-      <c r="G91" s="232"/>
+      <c r="G91" s="202"/>
       <c r="H91" s="54"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="139"/>
+      <c r="B92" s="142"/>
       <c r="C92" s="32" t="s">
         <v>127</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F92" s="232"/>
-      <c r="G92" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F92" s="202"/>
+      <c r="G92" s="202"/>
       <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="139" t="s">
-        <v>274</v>
+      <c r="B93" s="142" t="s">
+        <v>273</v>
       </c>
       <c r="C93" s="32" t="s">
         <v>117</v>
       </c>
       <c r="D93" s="32"/>
       <c r="E93" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="232"/>
-      <c r="G93" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F93" s="202"/>
+      <c r="G93" s="202"/>
       <c r="H93" s="54"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="139"/>
+      <c r="B94" s="142"/>
       <c r="C94" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="232"/>
-      <c r="G94" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F94" s="202"/>
+      <c r="G94" s="202"/>
       <c r="H94" s="54"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="139"/>
+      <c r="B95" s="142"/>
       <c r="C95" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F95" s="232"/>
-      <c r="G95" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F95" s="202"/>
+      <c r="G95" s="202"/>
       <c r="H95" s="54"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="139"/>
+      <c r="B96" s="142"/>
       <c r="C96" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="32"/>
       <c r="E96" s="56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F96" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G96" s="57"/>
       <c r="H96" s="57"/>
     </row>
     <row r="97" spans="1:5">
       <c r="B97" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C97" s="32"/>
       <c r="D97" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E97" s="58"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="B103" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -8524,39 +8536,40 @@
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
@@ -8569,38 +8582,37 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8623,12 +8635,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8640,50 +8652,50 @@
     </row>
     <row r="4" spans="1:14" ht="41.25" customHeight="1">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="29.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="6" t="s">
         <v>148</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="193" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="219"/>
-      <c r="I5" s="185"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="196"/>
     </row>
     <row r="6" spans="1:14" ht="78.75" customHeight="1">
       <c r="A6" s="8">
         <v>43136.354166666701</v>
       </c>
-      <c r="B6" s="200" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="201"/>
-      <c r="D6" s="202"/>
+      <c r="B6" s="228" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="229"/>
+      <c r="D6" s="230"/>
       <c r="E6" s="4">
         <v>400</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
       </c>
-      <c r="G6" s="151">
+      <c r="G6" s="146">
         <v>200</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="138"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1"/>
     <row r="9" spans="1:14" ht="37.5" customHeight="1">
@@ -8695,48 +8707,48 @@
       <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="231" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="203" t="s">
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="156"/>
-      <c r="G11" s="228" t="s">
+      <c r="F11" s="171"/>
+      <c r="G11" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="228" t="s">
+      <c r="H11" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="178" t="s">
-        <v>191</v>
+      <c r="I11" s="198" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A12" s="229"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="229"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="200"/>
     </row>
     <row r="13" spans="1:14" ht="27.75" customHeight="1">
       <c r="A13" s="13">
@@ -8825,7 +8837,7 @@
         <v>60</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -8860,39 +8872,39 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="27.75" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -8959,15 +8971,15 @@
       <c r="A20" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="232" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="204" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="159"/>
+      <c r="F20" s="174"/>
       <c r="G20" s="26">
         <v>2888</v>
       </c>
@@ -8979,164 +8991,164 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="233" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" s="233"/>
+      <c r="E21" s="237" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="237"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="160" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161" t="s">
+      <c r="A24" s="162" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="213" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="205" t="s">
+      <c r="J24" s="213"/>
+      <c r="K24" s="194" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="195"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A25" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="J24" s="205"/>
-      <c r="K24" s="182" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="183"/>
-    </row>
-    <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="166" t="s">
+      <c r="B25" s="193"/>
+      <c r="C25" s="214" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="214"/>
+      <c r="E25" s="236" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="184"/>
-      <c r="C25" s="219" t="s">
+      <c r="F25" s="236"/>
+      <c r="G25" s="236"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="219"/>
-      <c r="E25" s="234" t="s">
-        <v>295</v>
-      </c>
-      <c r="F25" s="234"/>
-      <c r="G25" s="234"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="219" t="s">
-        <v>234</v>
-      </c>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="185"/>
-      <c r="O25" s="206" t="s">
+      <c r="J25" s="214"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="196"/>
+      <c r="O25" s="220" t="s">
+        <v>206</v>
+      </c>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A26" s="221" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="222"/>
+      <c r="C26" s="223" t="s">
         <v>207</v>
       </c>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
-      <c r="T25" s="206"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="207" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209" t="s">
+      <c r="D26" s="234"/>
+      <c r="E26" s="235" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="235"/>
-      <c r="E26" s="236" t="s">
+      <c r="F26" s="235"/>
+      <c r="G26" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="236"/>
-      <c r="I26" s="235" t="s">
+      <c r="H26" s="235"/>
+      <c r="I26" s="234" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="208"/>
-      <c r="K26" s="209" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="208"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="222"/>
       <c r="O26" s="51" t="s">
         <v>146</v>
       </c>
       <c r="P26" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="Q26" s="51" t="s">
+      <c r="R26" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="R26" s="51" t="s">
+      <c r="S26" s="51" t="s">
         <v>213</v>
-      </c>
-      <c r="S26" s="51" t="s">
-        <v>214</v>
       </c>
       <c r="T26" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="184" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="137"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="215" t="s">
-        <v>230</v>
-      </c>
-      <c r="J27" s="216"/>
-      <c r="K27" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" s="138"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="144"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="218" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="219"/>
+      <c r="K27" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27" s="145"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
       <c r="S27" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A28" s="193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="145"/>
+      <c r="C28" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="T27" s="32"/>
-    </row>
-    <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="184" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="184" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="217" t="s">
-        <v>291</v>
-      </c>
-      <c r="J28" s="218"/>
-      <c r="K28" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="138"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="216" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" s="217"/>
+      <c r="K28" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="145"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
@@ -9145,178 +9157,178 @@
       <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="145"/>
+      <c r="C29" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="184" t="s">
+      <c r="D29" s="144"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="145"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A30" s="193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="145"/>
+      <c r="C30" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="138"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="184" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="184" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="184" t="s">
-        <v>175</v>
-      </c>
-      <c r="L30" s="138"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="145"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="160" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161" t="s">
+      <c r="A32" s="162" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="194" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="182" t="s">
-        <v>293</v>
-      </c>
-      <c r="J32" s="182"/>
-      <c r="K32" s="205" t="s">
+      <c r="J32" s="194"/>
+      <c r="K32" s="213" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="205"/>
+      <c r="L32" s="213"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="154" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="193"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="214" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="184"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219" t="s">
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="219" t="s">
-        <v>234</v>
-      </c>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="185"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="196"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="207" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="220" t="s">
+      <c r="D34" s="208"/>
+      <c r="E34" s="207" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="221"/>
-      <c r="E34" s="220" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="221"/>
-      <c r="G34" s="222" t="s">
+      <c r="F34" s="208"/>
+      <c r="G34" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="223"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="222" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="225"/>
-      <c r="L34" s="224"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="212"/>
+      <c r="L34" s="211"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="138"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="145"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="138"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="145"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" customHeight="1">
       <c r="A40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="C40" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="D40" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="E40" s="205" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="226" t="s">
+      <c r="F40" s="206"/>
+    </row>
+    <row r="41" spans="1:12" ht="45" customHeight="1">
+      <c r="A41" s="233" t="s">
         <v>243</v>
       </c>
-      <c r="F40" s="227"/>
-    </row>
-    <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="237" t="s">
+      <c r="B41" s="233"/>
+      <c r="D41" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B41" s="237"/>
-      <c r="D41" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="45" customHeight="1">
       <c r="A42" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>9</v>
@@ -9336,7 +9348,7 @@
     </row>
     <row r="43" spans="1:12" ht="45" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" s="4">
         <v>83</v>
@@ -9356,7 +9368,7 @@
     </row>
     <row r="44" spans="1:12" ht="45" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="4">
         <v>88</v>
@@ -9376,7 +9388,7 @@
     </row>
     <row r="45" spans="1:12" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" s="4">
         <v>100</v>
@@ -9399,7 +9411,7 @@
         <v>132</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
@@ -9420,58 +9432,58 @@
     <row r="47" spans="1:12" ht="82.5" customHeight="1"/>
     <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="27" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="19.5" customHeight="1">
       <c r="A54" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="C54" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="38" t="s">
-        <v>259</v>
-      </c>
       <c r="E54" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="G54" s="38" t="s">
         <v>258</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>259</v>
       </c>
       <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>120</v>
@@ -9482,12 +9494,12 @@
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="E56" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
@@ -9508,10 +9520,10 @@
     </row>
     <row r="63" spans="1:8" ht="22.5">
       <c r="A63" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F63" s="42" t="s">
         <v>262</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="65" spans="6:6">
@@ -9519,21 +9531,21 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="26.25" customHeight="1">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>17</v>
@@ -9542,133 +9554,133 @@
     <row r="88" spans="1:8" ht="26.25" customHeight="1">
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:8" ht="32.25" customHeight="1">
       <c r="A89" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" s="142" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" s="139" t="s">
-        <v>271</v>
       </c>
       <c r="C90" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="32"/>
       <c r="E90" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="F90" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="231" t="s">
-        <v>273</v>
-      </c>
-      <c r="G90" s="232"/>
+      <c r="G90" s="202"/>
       <c r="H90" s="54"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="139"/>
+      <c r="B91" s="142"/>
       <c r="C91" s="32" t="s">
         <v>127</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F91" s="232"/>
-      <c r="G91" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F91" s="202"/>
+      <c r="G91" s="202"/>
       <c r="H91" s="54"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="139" t="s">
-        <v>274</v>
+      <c r="B92" s="142" t="s">
+        <v>273</v>
       </c>
       <c r="C92" s="32" t="s">
         <v>117</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F92" s="232"/>
-      <c r="G92" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F92" s="202"/>
+      <c r="G92" s="202"/>
       <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="139"/>
+      <c r="B93" s="142"/>
       <c r="C93" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="32"/>
       <c r="E93" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="232"/>
-      <c r="G93" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F93" s="202"/>
+      <c r="G93" s="202"/>
       <c r="H93" s="54"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="139"/>
+      <c r="B94" s="142"/>
       <c r="C94" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D94" s="32"/>
       <c r="E94" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="232"/>
-      <c r="G94" s="232"/>
+        <v>271</v>
+      </c>
+      <c r="F94" s="202"/>
+      <c r="G94" s="202"/>
       <c r="H94" s="54"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="139"/>
+      <c r="B95" s="142"/>
       <c r="C95" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F95" s="57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G95" s="57"/>
       <c r="H95" s="57"/>
     </row>
     <row r="96" spans="1:8">
       <c r="B96" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C96" s="32"/>
       <c r="D96" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E96" s="58"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="B102" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -9707,38 +9719,45 @@
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F90:G94"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
@@ -9751,44 +9770,37 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F90:G94"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
